--- a/xls/vypl_pen_stats.xlsx
+++ b/xls/vypl_pen_stats.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>YEAR_OP</t>
   </si>
@@ -34,6 +34,15 @@
 group by trunc(vp.data_op, 'Y')
 order by trunc(vp.data_op, 'Y')</t>
   </si>
+  <si>
+    <t>Накопительно</t>
+  </si>
+  <si>
+    <t>Процент накопления</t>
+  </si>
+  <si>
+    <t>Ср.мес</t>
+  </si>
 </sst>
 </file>
 
@@ -42,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -66,6 +75,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,22 +112,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -136,6 +165,33 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -152,35 +208,30 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B26" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:B26"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="YEAR_OP" dataDxfId="4" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="CNT_YEAR_OP" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E26" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="A1:E25">
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="YEAR_OP" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="CNT_YEAR_OP" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Накопительно" dataDxfId="5">
+      <calculatedColumnFormula>Таблица1[[#This Row],[CNT_YEAR_OP]]+B1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Процент накопления" dataDxfId="4">
+      <calculatedColumnFormula>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Ср.мес" dataDxfId="0">
+      <calculatedColumnFormula>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,227 +522,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>35065</v>
       </c>
-      <c r="B2" s="4">
-        <v>8480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2">
+        <v>8488</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>8488</v>
+      </c>
+      <c r="D2" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>4.0611608527825363E-4</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>707.33333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>35431</v>
       </c>
-      <c r="B3" s="4">
-        <v>70237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3">
+        <v>70258</v>
+      </c>
+      <c r="C3" s="4">
+        <f>C2+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>78746</v>
+      </c>
+      <c r="D3" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>3.7676740399765975E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>5854.833333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>35796</v>
       </c>
-      <c r="B4" s="4">
-        <v>104870</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>104942</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C3+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>183688</v>
+      </c>
+      <c r="D4" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>8.7887195420112921E-3</v>
+      </c>
+      <c r="E4" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>8745.1666666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>36161</v>
       </c>
-      <c r="B5" s="4">
-        <v>174346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>174773</v>
+      </c>
+      <c r="C5" s="4">
+        <f>C4+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>358461</v>
+      </c>
+      <c r="D5" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>1.7150892795114052E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>14564.416666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>36526</v>
       </c>
-      <c r="B6" s="4">
-        <v>204900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <v>205969</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C5+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>564430</v>
+      </c>
+      <c r="D6" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>2.7005667060980759E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>17164.083333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>36892</v>
       </c>
-      <c r="B7" s="4">
-        <v>231073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7">
+        <v>232792</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C6+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>797222</v>
+      </c>
+      <c r="D7" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>3.8143812174564078E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>19399.333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>37257</v>
       </c>
-      <c r="B8" s="4">
-        <v>300878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8">
+        <v>303637</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C7+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>1100859</v>
+      </c>
+      <c r="D8" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>5.2671600792098615E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>25303.083333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>37622</v>
       </c>
-      <c r="B9" s="4">
-        <v>480518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9">
+        <v>485783</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C8+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>1586642</v>
+      </c>
+      <c r="D9" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>7.5914330558206747E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>40481.916666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>37987</v>
       </c>
-      <c r="B10" s="4">
-        <v>467254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10">
+        <v>473312</v>
+      </c>
+      <c r="C10" s="4">
+        <f>C9+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>2059954</v>
+      </c>
+      <c r="D10" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>9.8560373978944349E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>39442.666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>38353</v>
       </c>
-      <c r="B11" s="4">
-        <v>687276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11">
+        <v>697164</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C10+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>2757118</v>
+      </c>
+      <c r="D11" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.13191682007660321</v>
+      </c>
+      <c r="E11" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>58097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>38718</v>
       </c>
-      <c r="B12" s="4">
-        <v>627857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12">
+        <v>638410</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C11+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>3395528</v>
+      </c>
+      <c r="D12" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.16246212756982775</v>
+      </c>
+      <c r="E12" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>53200.833333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>39083</v>
       </c>
-      <c r="B13" s="4">
-        <v>725640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13">
+        <v>738203</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C12+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>4133731</v>
+      </c>
+      <c r="D13" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.1977821219737701</v>
+      </c>
+      <c r="E13" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>61516.916666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>39448</v>
       </c>
-      <c r="B14" s="4">
-        <v>1006113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14">
+        <v>1024045</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C13+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>5157776</v>
+      </c>
+      <c r="D14" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.24677848702428487</v>
+      </c>
+      <c r="E14" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>85337.083333333328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>39814</v>
       </c>
-      <c r="B15" s="4">
-        <v>1132061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15">
+        <v>1149801</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C14+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>6307577</v>
+      </c>
+      <c r="D15" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.30179176235051264</v>
+      </c>
+      <c r="E15" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>95816.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>40179</v>
       </c>
-      <c r="B16" s="4">
-        <v>1269160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16">
+        <v>1287982</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C15+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>7595559</v>
+      </c>
+      <c r="D16" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.36341643338595747</v>
+      </c>
+      <c r="E16" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>107331.83333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>40544</v>
       </c>
-      <c r="B17" s="4">
-        <v>1430681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17">
+        <v>1449394</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C16+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>9044953</v>
+      </c>
+      <c r="D17" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.43276400846910884</v>
+      </c>
+      <c r="E17" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>120782.83333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>40909</v>
       </c>
-      <c r="B18" s="4">
-        <v>1596527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18">
+        <v>1615503</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C17+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>10660456</v>
+      </c>
+      <c r="D18" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.51005921983989988</v>
+      </c>
+      <c r="E18" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>134625.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>41275</v>
       </c>
-      <c r="B19" s="4">
-        <v>1452185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19">
+        <v>1468204</v>
+      </c>
+      <c r="C19" s="4">
+        <f>C18+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>12128660</v>
+      </c>
+      <c r="D19" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.58030677649280671</v>
+      </c>
+      <c r="E19" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>122350.33333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>41640</v>
       </c>
-      <c r="B20" s="4">
-        <v>1615051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20">
+        <v>1632613</v>
+      </c>
+      <c r="C20" s="4">
+        <f>C19+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>13761273</v>
+      </c>
+      <c r="D20" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.65842063138611329</v>
+      </c>
+      <c r="E20" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>136051.08333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>42005</v>
       </c>
-      <c r="B21" s="4">
-        <v>1729010</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21">
+        <v>1744845</v>
+      </c>
+      <c r="C21" s="4">
+        <f>C20+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>15506118</v>
+      </c>
+      <c r="D21" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.74190432846638354</v>
+      </c>
+      <c r="E21" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>145403.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>42370</v>
       </c>
-      <c r="B22" s="4">
-        <v>1845700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22">
+        <v>1861194</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C21+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>17367312</v>
+      </c>
+      <c r="D22" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.83095484934566888</v>
+      </c>
+      <c r="E22" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>155099.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>42736</v>
       </c>
-      <c r="B23" s="4">
-        <v>1936218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23">
+        <v>1950712</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C22+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>19318024</v>
+      </c>
+      <c r="D23" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.92428844040897151</v>
+      </c>
+      <c r="E23" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>162559.33333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43101</v>
       </c>
-      <c r="B24" s="4">
-        <v>1400966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="4">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B24">
+        <v>1580631</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C23+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>20898655</v>
+      </c>
+      <c r="D24" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>0.99991516920131973</v>
+      </c>
+      <c r="E24" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>131719.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25">
+        <v>1773</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C24+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
+        <v>20900428</v>
+      </c>
+      <c r="D25" s="7">
+        <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
+        <v>147.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="5">
         <f>SUBTOTAL(109,[CNT_YEAR_OP])</f>
-        <v>20497829</v>
+        <v>20900428</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/xls/vypl_pen_stats.xlsx
+++ b/xls/vypl_pen_stats.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
     <sheet name="SQL Statement" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -89,6 +90,8 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -122,11 +125,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -138,6 +148,9 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -182,15 +195,6 @@
       <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -221,12 +225,12 @@
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="YEAR_OP" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="CNT_YEAR_OP" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="Накопительно" dataDxfId="5">
+    <tableColumn id="1" name="YEAR_OP" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="CNT_YEAR_OP" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Накопительно" dataDxfId="2">
       <calculatedColumnFormula>Таблица1[[#This Row],[CNT_YEAR_OP]]+B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Процент накопления" dataDxfId="4">
+    <tableColumn id="4" name="Процент накопления" dataDxfId="1">
       <calculatedColumnFormula>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Ср.мес" dataDxfId="0">
@@ -526,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1065,4 +1069,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f>A3*4.2</f>
+        <v>130.20000000000002</v>
+      </c>
+      <c r="B4">
+        <f>A4/17*100</f>
+        <v>765.88235294117658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f>A4/60</f>
+        <v>2.1700000000000004</v>
+      </c>
+      <c r="B5">
+        <f>B4/60</f>
+        <v>12.764705882352944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/vypl_pen_stats.xlsx
+++ b/xls/vypl_pen_stats.xlsx
@@ -530,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D24"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/xls/vypl_pen_stats.xlsx
+++ b/xls/vypl_pen_stats.xlsx
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -94,6 +94,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,9 +143,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -126,17 +153,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -148,9 +173,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -175,6 +197,15 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -225,12 +256,12 @@
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="YEAR_OP" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="CNT_YEAR_OP" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Накопительно" dataDxfId="2">
+    <tableColumn id="1" name="YEAR_OP" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="CNT_YEAR_OP" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Накопительно" dataDxfId="4">
       <calculatedColumnFormula>Таблица1[[#This Row],[CNT_YEAR_OP]]+B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Процент накопления" dataDxfId="1">
+    <tableColumn id="4" name="Процент накопления" dataDxfId="3">
       <calculatedColumnFormula>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Ср.мес" dataDxfId="0">
@@ -530,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -541,478 +572,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>35065</v>
       </c>
       <c r="B2">
         <v>8488</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>8488</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>4.0611608527825363E-4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>707.33333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>35431</v>
       </c>
       <c r="B3">
         <v>70258</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>C2+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>78746</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>3.7676740399765975E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>5854.833333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>35796</v>
       </c>
       <c r="B4">
         <v>104942</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>C3+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>183688</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>8.7887195420112921E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>8745.1666666666661</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>36161</v>
       </c>
       <c r="B5">
         <v>174773</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>C4+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>358461</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>1.7150892795114052E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>14564.416666666666</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>36526</v>
       </c>
       <c r="B6">
         <v>205969</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>C5+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>564430</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>2.7005667060980759E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>17164.083333333332</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>36892</v>
       </c>
       <c r="B7">
         <v>232792</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>C6+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>797222</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>3.8143812174564078E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>19399.333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>37257</v>
       </c>
       <c r="B8">
         <v>303637</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>C7+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>1100859</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>5.2671600792098615E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>25303.083333333332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>37622</v>
       </c>
       <c r="B9">
         <v>485783</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>C8+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>1586642</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>7.5914330558206747E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>40481.916666666664</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>37987</v>
       </c>
       <c r="B10">
         <v>473312</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>C9+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>2059954</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>9.8560373978944349E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>39442.666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>38353</v>
       </c>
       <c r="B11">
         <v>697164</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>C10+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>2757118</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.13191682007660321</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>58097</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>38718</v>
       </c>
       <c r="B12">
         <v>638410</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>C11+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>3395528</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.16246212756982775</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>53200.833333333336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>39083</v>
       </c>
       <c r="B13">
         <v>738203</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>C12+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>4133731</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.1977821219737701</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>61516.916666666664</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>39448</v>
       </c>
       <c r="B14">
         <v>1024045</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>C13+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>5157776</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.24677848702428487</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>85337.083333333328</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="11">
         <v>39814</v>
       </c>
       <c r="B15">
         <v>1149801</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>C14+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>6307577</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.30179176235051264</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>95816.75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="11">
         <v>40179</v>
       </c>
       <c r="B16">
         <v>1287982</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>C15+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>7595559</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.36341643338595747</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>107331.83333333333</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="11">
         <v>40544</v>
       </c>
       <c r="B17">
         <v>1449394</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>C16+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>9044953</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.43276400846910884</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>120782.83333333333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="11">
         <v>40909</v>
       </c>
       <c r="B18">
         <v>1615503</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>C17+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>10660456</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.51005921983989988</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>134625.25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="10">
         <v>41275</v>
       </c>
       <c r="B19">
         <v>1468204</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>C18+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>12128660</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.58030677649280671</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>122350.33333333333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="10">
         <v>41640</v>
       </c>
       <c r="B20">
         <v>1632613</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>C19+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>13761273</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.65842063138611329</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>136051.08333333334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="10">
         <v>42005</v>
       </c>
       <c r="B21">
         <v>1744845</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>C20+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>15506118</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.74190432846638354</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>145403.75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <v>42370</v>
       </c>
       <c r="B22">
         <v>1861194</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>C21+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>17367312</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.83095484934566888</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>155099.5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <v>42736</v>
       </c>
       <c r="B23">
         <v>1950712</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>C22+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>19318024</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.92428844040897151</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>162559.33333333334</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <v>43101</v>
       </c>
       <c r="B24">
         <v>1580631</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>C23+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>20898655</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>0.99991516920131973</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>131719.25</v>
       </c>
@@ -1021,22 +1052,22 @@
       <c r="B25">
         <v>1773</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>C24+Таблица1[[#This Row],[CNT_YEAR_OP]]</f>
         <v>20900428</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>Таблица1[[#This Row],[Накопительно]]/Таблица1[[#Totals],[CNT_YEAR_OP]]</f>
         <v>1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f>Таблица1[[#This Row],[CNT_YEAR_OP]]/12</f>
         <v>147.75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4">
         <f>SUBTOTAL(109,[CNT_YEAR_OP])</f>
         <v>20900428</v>
       </c>
@@ -1085,12 +1116,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9">
+      <c r="A1" s="8">
         <v>43252</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>42248</v>
       </c>
     </row>
